--- a/CasoDePrueba - Testing.xlsx
+++ b/CasoDePrueba - Testing.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="3540"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Prueba" sheetId="1" r:id="rId1"/>
+    <sheet name="Anexo" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="98">
   <si>
     <t>Proyecto:</t>
   </si>
@@ -216,16 +216,115 @@
   </si>
   <si>
     <t>1-Administrar Cuentas de Empresa</t>
+  </si>
+  <si>
+    <t>3- Administrar Metodologías</t>
+  </si>
+  <si>
+    <t>4- Cargar Metodología</t>
+  </si>
+  <si>
+    <t>Filtrar y ordenar empresas por metodología de buffet</t>
+  </si>
+  <si>
+    <t>Filtrar y ordenar empresas por metodología inventada</t>
+  </si>
+  <si>
+    <t>Se cargan empresas para prueba y se inicializa la metodología de buffet</t>
+  </si>
+  <si>
+    <t>Empresas("APPLE", "GOOGLE","FB", "PEPSI", "COCA")</t>
+  </si>
+  <si>
+    <t>Las empresas que cumplan las condiciones taxativas se filtran y se ordenan</t>
+  </si>
+  <si>
+    <t>Se cargan empresas para prueba y se inicializa la metodología inventada</t>
+  </si>
+  <si>
+    <t>Empresas("APPLE", "GOOGLE","FB")</t>
+  </si>
+  <si>
+    <t>#Caso de prueba: 9</t>
+  </si>
+  <si>
+    <t>APPLE</t>
+  </si>
+  <si>
+    <t>ingresoNetoOD</t>
+  </si>
+  <si>
+    <t>ingresoNetoCC</t>
+  </si>
+  <si>
+    <t>CapitalTotal</t>
+  </si>
+  <si>
+    <t>PasivoTotal</t>
+  </si>
+  <si>
+    <t>VentasNetas</t>
+  </si>
+  <si>
+    <t>PatrimonioNeto</t>
+  </si>
+  <si>
+    <t>Roe</t>
+  </si>
+  <si>
+    <t>consistente</t>
+  </si>
+  <si>
+    <t>prom:</t>
+  </si>
+  <si>
+    <t>ProfMarg</t>
+  </si>
+  <si>
+    <t>creciente</t>
+  </si>
+  <si>
+    <t>DebEqR</t>
+  </si>
+  <si>
+    <t>FACEBOOK</t>
+  </si>
+  <si>
+    <t>creciente y + alto</t>
+  </si>
+  <si>
+    <t>el +bajo</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>No Consistente</t>
+  </si>
+  <si>
+    <t>COCA</t>
+  </si>
+  <si>
+    <t>Consistente</t>
+  </si>
+  <si>
+    <t>No creciente</t>
+  </si>
+  <si>
+    <t>#Caso de prueba: 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,8 +411,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,8 +519,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -635,12 +804,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -740,95 +969,165 @@
     <xf numFmtId="14" fontId="9" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1146,21 +1445,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
@@ -1168,12 +1467,12 @@
     <col min="4" max="4" width="62" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="92.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="93.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" customWidth="1"/>
@@ -1182,6 +1481,7 @@
     <col min="18" max="18" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.42578125" customWidth="1"/>
     <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="260" max="260" width="21.85546875" customWidth="1"/>
     <col min="261" max="261" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -2192,7 +2492,7 @@
     <col min="16147" max="16147" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
@@ -2213,147 +2513,147 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="48" t="s">
+    <row r="2" spans="1:21" ht="14.45" customHeight="1">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-    </row>
-    <row r="3" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-    </row>
-    <row r="4" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-    </row>
-    <row r="5" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-    </row>
-    <row r="6" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-    </row>
-    <row r="8" spans="1:21" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.45" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+    </row>
+    <row r="4" spans="1:21" ht="14.45" customHeight="1">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+    </row>
+    <row r="5" spans="1:21" ht="14.45" customHeight="1">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+    </row>
+    <row r="6" spans="1:21" ht="14.45" customHeight="1">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.2" customHeight="1" thickBot="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+    </row>
+    <row r="8" spans="1:21" ht="4.9000000000000004" customHeight="1" thickBot="1">
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
@@ -2374,15 +2674,15 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="15.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -2400,13 +2700,13 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="15.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -2424,13 +2724,13 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1">
       <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -2448,13 +2748,13 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2472,7 +2772,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:21" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="4.9000000000000004" customHeight="1" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="5"/>
       <c r="C13" s="8"/>
@@ -2494,34 +2794,34 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:21" s="12" customFormat="1" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
+    <row r="14" spans="1:21" s="12" customFormat="1" ht="27.4" customHeight="1" thickBot="1">
+      <c r="A14" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="53" t="s">
+      <c r="L14" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-    </row>
-    <row r="15" spans="1:21" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+    </row>
+    <row r="15" spans="1:21" s="9" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
       <c r="A15" s="13" t="s">
         <v>4</v>
       </c>
@@ -2586,11 +2886,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:21" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+    <row r="16" spans="1:21" ht="24.75" customHeight="1">
+      <c r="A16" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="56" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="28">
@@ -2633,9 +2933,9 @@
         <v>42855</v>
       </c>
     </row>
-    <row r="17" spans="1:21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="57"/>
-      <c r="B17" s="35"/>
+    <row r="17" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A17" s="61"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="29">
         <v>2</v>
       </c>
@@ -2676,9 +2976,9 @@
         <v>42855</v>
       </c>
     </row>
-    <row r="18" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58" t="s">
+    <row r="18" spans="1:21" ht="26.25" customHeight="1">
+      <c r="A18" s="61"/>
+      <c r="B18" s="59" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="28">
@@ -2723,8 +3023,8 @@
         <v>42855</v>
       </c>
     </row>
-    <row r="19" spans="1:21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+    <row r="19" spans="1:21" ht="15" customHeight="1">
+      <c r="A19" s="61"/>
       <c r="B19" s="60"/>
       <c r="C19" s="28">
         <v>4</v>
@@ -2768,9 +3068,9 @@
         <v>42855</v>
       </c>
     </row>
-    <row r="20" spans="1:21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="63"/>
-      <c r="B20" s="61"/>
+    <row r="20" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A20" s="36"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="28">
         <v>5</v>
       </c>
@@ -2809,11 +3109,11 @@
       <c r="T20" s="16"/>
       <c r="U20" s="18"/>
     </row>
-    <row r="21" spans="1:21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15" customHeight="1">
       <c r="A21" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="59" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="28">
@@ -2858,9 +3158,9 @@
         <v>42855</v>
       </c>
     </row>
-    <row r="22" spans="1:21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
+    <row r="22" spans="1:21" ht="15" customHeight="1">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="28">
         <v>7</v>
       </c>
@@ -2903,9 +3203,9 @@
         <v>42855</v>
       </c>
     </row>
-    <row r="23" spans="1:21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
-      <c r="B23" s="62"/>
+    <row r="23" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A23" s="62"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="28">
         <v>8</v>
       </c>
@@ -2948,62 +3248,123 @@
         <v>42855</v>
       </c>
     </row>
-    <row r="24" spans="1:21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A24" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="71">
+        <v>9</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="69"/>
+      <c r="F24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="69"/>
+      <c r="I24" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="70">
+        <v>42961</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="69"/>
+      <c r="U24" s="72">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A25" s="66"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="71">
+        <v>10</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="69"/>
+      <c r="F25" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="69"/>
+      <c r="I25" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="70">
+        <v>42961</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" s="69"/>
+      <c r="U25" s="72">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="6"/>
-    </row>
-    <row r="29" spans="1:21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="6"/>
-    </row>
-    <row r="35" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="6"/>
-    </row>
+    </row>
+    <row r="29" spans="1:21" ht="15" customHeight="1"/>
+    <row r="31" spans="1:21" ht="15" customHeight="1"/>
+    <row r="32" spans="1:21" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A2:C7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="D2:U7"/>
-    <mergeCell ref="B11:D11"/>
+  <mergeCells count="15">
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="L14:U14"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="D2:U7"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVY983052:WVY983072 Q65533:Q65553 JM65548:JM65568 TI65548:TI65568 ADE65548:ADE65568 ANA65548:ANA65568 AWW65548:AWW65568 BGS65548:BGS65568 BQO65548:BQO65568 CAK65548:CAK65568 CKG65548:CKG65568 CUC65548:CUC65568 DDY65548:DDY65568 DNU65548:DNU65568 DXQ65548:DXQ65568 EHM65548:EHM65568 ERI65548:ERI65568 FBE65548:FBE65568 FLA65548:FLA65568 FUW65548:FUW65568 GES65548:GES65568 GOO65548:GOO65568 GYK65548:GYK65568 HIG65548:HIG65568 HSC65548:HSC65568 IBY65548:IBY65568 ILU65548:ILU65568 IVQ65548:IVQ65568 JFM65548:JFM65568 JPI65548:JPI65568 JZE65548:JZE65568 KJA65548:KJA65568 KSW65548:KSW65568 LCS65548:LCS65568 LMO65548:LMO65568 LWK65548:LWK65568 MGG65548:MGG65568 MQC65548:MQC65568 MZY65548:MZY65568 NJU65548:NJU65568 NTQ65548:NTQ65568 ODM65548:ODM65568 ONI65548:ONI65568 OXE65548:OXE65568 PHA65548:PHA65568 PQW65548:PQW65568 QAS65548:QAS65568 QKO65548:QKO65568 QUK65548:QUK65568 REG65548:REG65568 ROC65548:ROC65568 RXY65548:RXY65568 SHU65548:SHU65568 SRQ65548:SRQ65568 TBM65548:TBM65568 TLI65548:TLI65568 TVE65548:TVE65568 UFA65548:UFA65568 UOW65548:UOW65568 UYS65548:UYS65568 VIO65548:VIO65568 VSK65548:VSK65568 WCG65548:WCG65568 WMC65548:WMC65568 WVY65548:WVY65568 Q131069:Q131089 JM131084:JM131104 TI131084:TI131104 ADE131084:ADE131104 ANA131084:ANA131104 AWW131084:AWW131104 BGS131084:BGS131104 BQO131084:BQO131104 CAK131084:CAK131104 CKG131084:CKG131104 CUC131084:CUC131104 DDY131084:DDY131104 DNU131084:DNU131104 DXQ131084:DXQ131104 EHM131084:EHM131104 ERI131084:ERI131104 FBE131084:FBE131104 FLA131084:FLA131104 FUW131084:FUW131104 GES131084:GES131104 GOO131084:GOO131104 GYK131084:GYK131104 HIG131084:HIG131104 HSC131084:HSC131104 IBY131084:IBY131104 ILU131084:ILU131104 IVQ131084:IVQ131104 JFM131084:JFM131104 JPI131084:JPI131104 JZE131084:JZE131104 KJA131084:KJA131104 KSW131084:KSW131104 LCS131084:LCS131104 LMO131084:LMO131104 LWK131084:LWK131104 MGG131084:MGG131104 MQC131084:MQC131104 MZY131084:MZY131104 NJU131084:NJU131104 NTQ131084:NTQ131104 ODM131084:ODM131104 ONI131084:ONI131104 OXE131084:OXE131104 PHA131084:PHA131104 PQW131084:PQW131104 QAS131084:QAS131104 QKO131084:QKO131104 QUK131084:QUK131104 REG131084:REG131104 ROC131084:ROC131104 RXY131084:RXY131104 SHU131084:SHU131104 SRQ131084:SRQ131104 TBM131084:TBM131104 TLI131084:TLI131104 TVE131084:TVE131104 UFA131084:UFA131104 UOW131084:UOW131104 UYS131084:UYS131104 VIO131084:VIO131104 VSK131084:VSK131104 WCG131084:WCG131104 WMC131084:WMC131104 WVY131084:WVY131104 Q196605:Q196625 JM196620:JM196640 TI196620:TI196640 ADE196620:ADE196640 ANA196620:ANA196640 AWW196620:AWW196640 BGS196620:BGS196640 BQO196620:BQO196640 CAK196620:CAK196640 CKG196620:CKG196640 CUC196620:CUC196640 DDY196620:DDY196640 DNU196620:DNU196640 DXQ196620:DXQ196640 EHM196620:EHM196640 ERI196620:ERI196640 FBE196620:FBE196640 FLA196620:FLA196640 FUW196620:FUW196640 GES196620:GES196640 GOO196620:GOO196640 GYK196620:GYK196640 HIG196620:HIG196640 HSC196620:HSC196640 IBY196620:IBY196640 ILU196620:ILU196640 IVQ196620:IVQ196640 JFM196620:JFM196640 JPI196620:JPI196640 JZE196620:JZE196640 KJA196620:KJA196640 KSW196620:KSW196640 LCS196620:LCS196640 LMO196620:LMO196640 LWK196620:LWK196640 MGG196620:MGG196640 MQC196620:MQC196640 MZY196620:MZY196640 NJU196620:NJU196640 NTQ196620:NTQ196640 ODM196620:ODM196640 ONI196620:ONI196640 OXE196620:OXE196640 PHA196620:PHA196640 PQW196620:PQW196640 QAS196620:QAS196640 QKO196620:QKO196640 QUK196620:QUK196640 REG196620:REG196640 ROC196620:ROC196640 RXY196620:RXY196640 SHU196620:SHU196640 SRQ196620:SRQ196640 TBM196620:TBM196640 TLI196620:TLI196640 TVE196620:TVE196640 UFA196620:UFA196640 UOW196620:UOW196640 UYS196620:UYS196640 VIO196620:VIO196640 VSK196620:VSK196640 WCG196620:WCG196640 WMC196620:WMC196640 WVY196620:WVY196640 Q262141:Q262161 JM262156:JM262176 TI262156:TI262176 ADE262156:ADE262176 ANA262156:ANA262176 AWW262156:AWW262176 BGS262156:BGS262176 BQO262156:BQO262176 CAK262156:CAK262176 CKG262156:CKG262176 CUC262156:CUC262176 DDY262156:DDY262176 DNU262156:DNU262176 DXQ262156:DXQ262176 EHM262156:EHM262176 ERI262156:ERI262176 FBE262156:FBE262176 FLA262156:FLA262176 FUW262156:FUW262176 GES262156:GES262176 GOO262156:GOO262176 GYK262156:GYK262176 HIG262156:HIG262176 HSC262156:HSC262176 IBY262156:IBY262176 ILU262156:ILU262176 IVQ262156:IVQ262176 JFM262156:JFM262176 JPI262156:JPI262176 JZE262156:JZE262176 KJA262156:KJA262176 KSW262156:KSW262176 LCS262156:LCS262176 LMO262156:LMO262176 LWK262156:LWK262176 MGG262156:MGG262176 MQC262156:MQC262176 MZY262156:MZY262176 NJU262156:NJU262176 NTQ262156:NTQ262176 ODM262156:ODM262176 ONI262156:ONI262176 OXE262156:OXE262176 PHA262156:PHA262176 PQW262156:PQW262176 QAS262156:QAS262176 QKO262156:QKO262176 QUK262156:QUK262176 REG262156:REG262176 ROC262156:ROC262176 RXY262156:RXY262176 SHU262156:SHU262176 SRQ262156:SRQ262176 TBM262156:TBM262176 TLI262156:TLI262176 TVE262156:TVE262176 UFA262156:UFA262176 UOW262156:UOW262176 UYS262156:UYS262176 VIO262156:VIO262176 VSK262156:VSK262176 WCG262156:WCG262176 WMC262156:WMC262176 WVY262156:WVY262176 Q327677:Q327697 JM327692:JM327712 TI327692:TI327712 ADE327692:ADE327712 ANA327692:ANA327712 AWW327692:AWW327712 BGS327692:BGS327712 BQO327692:BQO327712 CAK327692:CAK327712 CKG327692:CKG327712 CUC327692:CUC327712 DDY327692:DDY327712 DNU327692:DNU327712 DXQ327692:DXQ327712 EHM327692:EHM327712 ERI327692:ERI327712 FBE327692:FBE327712 FLA327692:FLA327712 FUW327692:FUW327712 GES327692:GES327712 GOO327692:GOO327712 GYK327692:GYK327712 HIG327692:HIG327712 HSC327692:HSC327712 IBY327692:IBY327712 ILU327692:ILU327712 IVQ327692:IVQ327712 JFM327692:JFM327712 JPI327692:JPI327712 JZE327692:JZE327712 KJA327692:KJA327712 KSW327692:KSW327712 LCS327692:LCS327712 LMO327692:LMO327712 LWK327692:LWK327712 MGG327692:MGG327712 MQC327692:MQC327712 MZY327692:MZY327712 NJU327692:NJU327712 NTQ327692:NTQ327712 ODM327692:ODM327712 ONI327692:ONI327712 OXE327692:OXE327712 PHA327692:PHA327712 PQW327692:PQW327712 QAS327692:QAS327712 QKO327692:QKO327712 QUK327692:QUK327712 REG327692:REG327712 ROC327692:ROC327712 RXY327692:RXY327712 SHU327692:SHU327712 SRQ327692:SRQ327712 TBM327692:TBM327712 TLI327692:TLI327712 TVE327692:TVE327712 UFA327692:UFA327712 UOW327692:UOW327712 UYS327692:UYS327712 VIO327692:VIO327712 VSK327692:VSK327712 WCG327692:WCG327712 WMC327692:WMC327712 WVY327692:WVY327712 Q393213:Q393233 JM393228:JM393248 TI393228:TI393248 ADE393228:ADE393248 ANA393228:ANA393248 AWW393228:AWW393248 BGS393228:BGS393248 BQO393228:BQO393248 CAK393228:CAK393248 CKG393228:CKG393248 CUC393228:CUC393248 DDY393228:DDY393248 DNU393228:DNU393248 DXQ393228:DXQ393248 EHM393228:EHM393248 ERI393228:ERI393248 FBE393228:FBE393248 FLA393228:FLA393248 FUW393228:FUW393248 GES393228:GES393248 GOO393228:GOO393248 GYK393228:GYK393248 HIG393228:HIG393248 HSC393228:HSC393248 IBY393228:IBY393248 ILU393228:ILU393248 IVQ393228:IVQ393248 JFM393228:JFM393248 JPI393228:JPI393248 JZE393228:JZE393248 KJA393228:KJA393248 KSW393228:KSW393248 LCS393228:LCS393248 LMO393228:LMO393248 LWK393228:LWK393248 MGG393228:MGG393248 MQC393228:MQC393248 MZY393228:MZY393248 NJU393228:NJU393248 NTQ393228:NTQ393248 ODM393228:ODM393248 ONI393228:ONI393248 OXE393228:OXE393248 PHA393228:PHA393248 PQW393228:PQW393248 QAS393228:QAS393248 QKO393228:QKO393248 QUK393228:QUK393248 REG393228:REG393248 ROC393228:ROC393248 RXY393228:RXY393248 SHU393228:SHU393248 SRQ393228:SRQ393248 TBM393228:TBM393248 TLI393228:TLI393248 TVE393228:TVE393248 UFA393228:UFA393248 UOW393228:UOW393248 UYS393228:UYS393248 VIO393228:VIO393248 VSK393228:VSK393248 WCG393228:WCG393248 WMC393228:WMC393248 WVY393228:WVY393248 Q458749:Q458769 JM458764:JM458784 TI458764:TI458784 ADE458764:ADE458784 ANA458764:ANA458784 AWW458764:AWW458784 BGS458764:BGS458784 BQO458764:BQO458784 CAK458764:CAK458784 CKG458764:CKG458784 CUC458764:CUC458784 DDY458764:DDY458784 DNU458764:DNU458784 DXQ458764:DXQ458784 EHM458764:EHM458784 ERI458764:ERI458784 FBE458764:FBE458784 FLA458764:FLA458784 FUW458764:FUW458784 GES458764:GES458784 GOO458764:GOO458784 GYK458764:GYK458784 HIG458764:HIG458784 HSC458764:HSC458784 IBY458764:IBY458784 ILU458764:ILU458784 IVQ458764:IVQ458784 JFM458764:JFM458784 JPI458764:JPI458784 JZE458764:JZE458784 KJA458764:KJA458784 KSW458764:KSW458784 LCS458764:LCS458784 LMO458764:LMO458784 LWK458764:LWK458784 MGG458764:MGG458784 MQC458764:MQC458784 MZY458764:MZY458784 NJU458764:NJU458784 NTQ458764:NTQ458784 ODM458764:ODM458784 ONI458764:ONI458784 OXE458764:OXE458784 PHA458764:PHA458784 PQW458764:PQW458784 QAS458764:QAS458784 QKO458764:QKO458784 QUK458764:QUK458784 REG458764:REG458784 ROC458764:ROC458784 RXY458764:RXY458784 SHU458764:SHU458784 SRQ458764:SRQ458784 TBM458764:TBM458784 TLI458764:TLI458784 TVE458764:TVE458784 UFA458764:UFA458784 UOW458764:UOW458784 UYS458764:UYS458784 VIO458764:VIO458784 VSK458764:VSK458784 WCG458764:WCG458784 WMC458764:WMC458784 WVY458764:WVY458784 Q524285:Q524305 JM524300:JM524320 TI524300:TI524320 ADE524300:ADE524320 ANA524300:ANA524320 AWW524300:AWW524320 BGS524300:BGS524320 BQO524300:BQO524320 CAK524300:CAK524320 CKG524300:CKG524320 CUC524300:CUC524320 DDY524300:DDY524320 DNU524300:DNU524320 DXQ524300:DXQ524320 EHM524300:EHM524320 ERI524300:ERI524320 FBE524300:FBE524320 FLA524300:FLA524320 FUW524300:FUW524320 GES524300:GES524320 GOO524300:GOO524320 GYK524300:GYK524320 HIG524300:HIG524320 HSC524300:HSC524320 IBY524300:IBY524320 ILU524300:ILU524320 IVQ524300:IVQ524320 JFM524300:JFM524320 JPI524300:JPI524320 JZE524300:JZE524320 KJA524300:KJA524320 KSW524300:KSW524320 LCS524300:LCS524320 LMO524300:LMO524320 LWK524300:LWK524320 MGG524300:MGG524320 MQC524300:MQC524320 MZY524300:MZY524320 NJU524300:NJU524320 NTQ524300:NTQ524320 ODM524300:ODM524320 ONI524300:ONI524320 OXE524300:OXE524320 PHA524300:PHA524320 PQW524300:PQW524320 QAS524300:QAS524320 QKO524300:QKO524320 QUK524300:QUK524320 REG524300:REG524320 ROC524300:ROC524320 RXY524300:RXY524320 SHU524300:SHU524320 SRQ524300:SRQ524320 TBM524300:TBM524320 TLI524300:TLI524320 TVE524300:TVE524320 UFA524300:UFA524320 UOW524300:UOW524320 UYS524300:UYS524320 VIO524300:VIO524320 VSK524300:VSK524320 WCG524300:WCG524320 WMC524300:WMC524320 WVY524300:WVY524320 Q589821:Q589841 JM589836:JM589856 TI589836:TI589856 ADE589836:ADE589856 ANA589836:ANA589856 AWW589836:AWW589856 BGS589836:BGS589856 BQO589836:BQO589856 CAK589836:CAK589856 CKG589836:CKG589856 CUC589836:CUC589856 DDY589836:DDY589856 DNU589836:DNU589856 DXQ589836:DXQ589856 EHM589836:EHM589856 ERI589836:ERI589856 FBE589836:FBE589856 FLA589836:FLA589856 FUW589836:FUW589856 GES589836:GES589856 GOO589836:GOO589856 GYK589836:GYK589856 HIG589836:HIG589856 HSC589836:HSC589856 IBY589836:IBY589856 ILU589836:ILU589856 IVQ589836:IVQ589856 JFM589836:JFM589856 JPI589836:JPI589856 JZE589836:JZE589856 KJA589836:KJA589856 KSW589836:KSW589856 LCS589836:LCS589856 LMO589836:LMO589856 LWK589836:LWK589856 MGG589836:MGG589856 MQC589836:MQC589856 MZY589836:MZY589856 NJU589836:NJU589856 NTQ589836:NTQ589856 ODM589836:ODM589856 ONI589836:ONI589856 OXE589836:OXE589856 PHA589836:PHA589856 PQW589836:PQW589856 QAS589836:QAS589856 QKO589836:QKO589856 QUK589836:QUK589856 REG589836:REG589856 ROC589836:ROC589856 RXY589836:RXY589856 SHU589836:SHU589856 SRQ589836:SRQ589856 TBM589836:TBM589856 TLI589836:TLI589856 TVE589836:TVE589856 UFA589836:UFA589856 UOW589836:UOW589856 UYS589836:UYS589856 VIO589836:VIO589856 VSK589836:VSK589856 WCG589836:WCG589856 WMC589836:WMC589856 WVY589836:WVY589856 Q655357:Q655377 JM655372:JM655392 TI655372:TI655392 ADE655372:ADE655392 ANA655372:ANA655392 AWW655372:AWW655392 BGS655372:BGS655392 BQO655372:BQO655392 CAK655372:CAK655392 CKG655372:CKG655392 CUC655372:CUC655392 DDY655372:DDY655392 DNU655372:DNU655392 DXQ655372:DXQ655392 EHM655372:EHM655392 ERI655372:ERI655392 FBE655372:FBE655392 FLA655372:FLA655392 FUW655372:FUW655392 GES655372:GES655392 GOO655372:GOO655392 GYK655372:GYK655392 HIG655372:HIG655392 HSC655372:HSC655392 IBY655372:IBY655392 ILU655372:ILU655392 IVQ655372:IVQ655392 JFM655372:JFM655392 JPI655372:JPI655392 JZE655372:JZE655392 KJA655372:KJA655392 KSW655372:KSW655392 LCS655372:LCS655392 LMO655372:LMO655392 LWK655372:LWK655392 MGG655372:MGG655392 MQC655372:MQC655392 MZY655372:MZY655392 NJU655372:NJU655392 NTQ655372:NTQ655392 ODM655372:ODM655392 ONI655372:ONI655392 OXE655372:OXE655392 PHA655372:PHA655392 PQW655372:PQW655392 QAS655372:QAS655392 QKO655372:QKO655392 QUK655372:QUK655392 REG655372:REG655392 ROC655372:ROC655392 RXY655372:RXY655392 SHU655372:SHU655392 SRQ655372:SRQ655392 TBM655372:TBM655392 TLI655372:TLI655392 TVE655372:TVE655392 UFA655372:UFA655392 UOW655372:UOW655392 UYS655372:UYS655392 VIO655372:VIO655392 VSK655372:VSK655392 WCG655372:WCG655392 WMC655372:WMC655392 WVY655372:WVY655392 Q720893:Q720913 JM720908:JM720928 TI720908:TI720928 ADE720908:ADE720928 ANA720908:ANA720928 AWW720908:AWW720928 BGS720908:BGS720928 BQO720908:BQO720928 CAK720908:CAK720928 CKG720908:CKG720928 CUC720908:CUC720928 DDY720908:DDY720928 DNU720908:DNU720928 DXQ720908:DXQ720928 EHM720908:EHM720928 ERI720908:ERI720928 FBE720908:FBE720928 FLA720908:FLA720928 FUW720908:FUW720928 GES720908:GES720928 GOO720908:GOO720928 GYK720908:GYK720928 HIG720908:HIG720928 HSC720908:HSC720928 IBY720908:IBY720928 ILU720908:ILU720928 IVQ720908:IVQ720928 JFM720908:JFM720928 JPI720908:JPI720928 JZE720908:JZE720928 KJA720908:KJA720928 KSW720908:KSW720928 LCS720908:LCS720928 LMO720908:LMO720928 LWK720908:LWK720928 MGG720908:MGG720928 MQC720908:MQC720928 MZY720908:MZY720928 NJU720908:NJU720928 NTQ720908:NTQ720928 ODM720908:ODM720928 ONI720908:ONI720928 OXE720908:OXE720928 PHA720908:PHA720928 PQW720908:PQW720928 QAS720908:QAS720928 QKO720908:QKO720928 QUK720908:QUK720928 REG720908:REG720928 ROC720908:ROC720928 RXY720908:RXY720928 SHU720908:SHU720928 SRQ720908:SRQ720928 TBM720908:TBM720928 TLI720908:TLI720928 TVE720908:TVE720928 UFA720908:UFA720928 UOW720908:UOW720928 UYS720908:UYS720928 VIO720908:VIO720928 VSK720908:VSK720928 WCG720908:WCG720928 WMC720908:WMC720928 WVY720908:WVY720928 Q786429:Q786449 JM786444:JM786464 TI786444:TI786464 ADE786444:ADE786464 ANA786444:ANA786464 AWW786444:AWW786464 BGS786444:BGS786464 BQO786444:BQO786464 CAK786444:CAK786464 CKG786444:CKG786464 CUC786444:CUC786464 DDY786444:DDY786464 DNU786444:DNU786464 DXQ786444:DXQ786464 EHM786444:EHM786464 ERI786444:ERI786464 FBE786444:FBE786464 FLA786444:FLA786464 FUW786444:FUW786464 GES786444:GES786464 GOO786444:GOO786464 GYK786444:GYK786464 HIG786444:HIG786464 HSC786444:HSC786464 IBY786444:IBY786464 ILU786444:ILU786464 IVQ786444:IVQ786464 JFM786444:JFM786464 JPI786444:JPI786464 JZE786444:JZE786464 KJA786444:KJA786464 KSW786444:KSW786464 LCS786444:LCS786464 LMO786444:LMO786464 LWK786444:LWK786464 MGG786444:MGG786464 MQC786444:MQC786464 MZY786444:MZY786464 NJU786444:NJU786464 NTQ786444:NTQ786464 ODM786444:ODM786464 ONI786444:ONI786464 OXE786444:OXE786464 PHA786444:PHA786464 PQW786444:PQW786464 QAS786444:QAS786464 QKO786444:QKO786464 QUK786444:QUK786464 REG786444:REG786464 ROC786444:ROC786464 RXY786444:RXY786464 SHU786444:SHU786464 SRQ786444:SRQ786464 TBM786444:TBM786464 TLI786444:TLI786464 TVE786444:TVE786464 UFA786444:UFA786464 UOW786444:UOW786464 UYS786444:UYS786464 VIO786444:VIO786464 VSK786444:VSK786464 WCG786444:WCG786464 WMC786444:WMC786464 WVY786444:WVY786464 Q851965:Q851985 JM851980:JM852000 TI851980:TI852000 ADE851980:ADE852000 ANA851980:ANA852000 AWW851980:AWW852000 BGS851980:BGS852000 BQO851980:BQO852000 CAK851980:CAK852000 CKG851980:CKG852000 CUC851980:CUC852000 DDY851980:DDY852000 DNU851980:DNU852000 DXQ851980:DXQ852000 EHM851980:EHM852000 ERI851980:ERI852000 FBE851980:FBE852000 FLA851980:FLA852000 FUW851980:FUW852000 GES851980:GES852000 GOO851980:GOO852000 GYK851980:GYK852000 HIG851980:HIG852000 HSC851980:HSC852000 IBY851980:IBY852000 ILU851980:ILU852000 IVQ851980:IVQ852000 JFM851980:JFM852000 JPI851980:JPI852000 JZE851980:JZE852000 KJA851980:KJA852000 KSW851980:KSW852000 LCS851980:LCS852000 LMO851980:LMO852000 LWK851980:LWK852000 MGG851980:MGG852000 MQC851980:MQC852000 MZY851980:MZY852000 NJU851980:NJU852000 NTQ851980:NTQ852000 ODM851980:ODM852000 ONI851980:ONI852000 OXE851980:OXE852000 PHA851980:PHA852000 PQW851980:PQW852000 QAS851980:QAS852000 QKO851980:QKO852000 QUK851980:QUK852000 REG851980:REG852000 ROC851980:ROC852000 RXY851980:RXY852000 SHU851980:SHU852000 SRQ851980:SRQ852000 TBM851980:TBM852000 TLI851980:TLI852000 TVE851980:TVE852000 UFA851980:UFA852000 UOW851980:UOW852000 UYS851980:UYS852000 VIO851980:VIO852000 VSK851980:VSK852000 WCG851980:WCG852000 WMC851980:WMC852000 WVY851980:WVY852000 Q917501:Q917521 JM917516:JM917536 TI917516:TI917536 ADE917516:ADE917536 ANA917516:ANA917536 AWW917516:AWW917536 BGS917516:BGS917536 BQO917516:BQO917536 CAK917516:CAK917536 CKG917516:CKG917536 CUC917516:CUC917536 DDY917516:DDY917536 DNU917516:DNU917536 DXQ917516:DXQ917536 EHM917516:EHM917536 ERI917516:ERI917536 FBE917516:FBE917536 FLA917516:FLA917536 FUW917516:FUW917536 GES917516:GES917536 GOO917516:GOO917536 GYK917516:GYK917536 HIG917516:HIG917536 HSC917516:HSC917536 IBY917516:IBY917536 ILU917516:ILU917536 IVQ917516:IVQ917536 JFM917516:JFM917536 JPI917516:JPI917536 JZE917516:JZE917536 KJA917516:KJA917536 KSW917516:KSW917536 LCS917516:LCS917536 LMO917516:LMO917536 LWK917516:LWK917536 MGG917516:MGG917536 MQC917516:MQC917536 MZY917516:MZY917536 NJU917516:NJU917536 NTQ917516:NTQ917536 ODM917516:ODM917536 ONI917516:ONI917536 OXE917516:OXE917536 PHA917516:PHA917536 PQW917516:PQW917536 QAS917516:QAS917536 QKO917516:QKO917536 QUK917516:QUK917536 REG917516:REG917536 ROC917516:ROC917536 RXY917516:RXY917536 SHU917516:SHU917536 SRQ917516:SRQ917536 TBM917516:TBM917536 TLI917516:TLI917536 TVE917516:TVE917536 UFA917516:UFA917536 UOW917516:UOW917536 UYS917516:UYS917536 VIO917516:VIO917536 VSK917516:VSK917536 WCG917516:WCG917536 WMC917516:WMC917536 WVY917516:WVY917536 Q983037:Q983057 JM983052:JM983072 TI983052:TI983072 ADE983052:ADE983072 ANA983052:ANA983072 AWW983052:AWW983072 BGS983052:BGS983072 BQO983052:BQO983072 CAK983052:CAK983072 CKG983052:CKG983072 CUC983052:CUC983072 DDY983052:DDY983072 DNU983052:DNU983072 DXQ983052:DXQ983072 EHM983052:EHM983072 ERI983052:ERI983072 FBE983052:FBE983072 FLA983052:FLA983072 FUW983052:FUW983072 GES983052:GES983072 GOO983052:GOO983072 GYK983052:GYK983072 HIG983052:HIG983072 HSC983052:HSC983072 IBY983052:IBY983072 ILU983052:ILU983072 IVQ983052:IVQ983072 JFM983052:JFM983072 JPI983052:JPI983072 JZE983052:JZE983072 KJA983052:KJA983072 KSW983052:KSW983072 LCS983052:LCS983072 LMO983052:LMO983072 LWK983052:LWK983072 MGG983052:MGG983072 MQC983052:MQC983072 MZY983052:MZY983072 NJU983052:NJU983072 NTQ983052:NTQ983072 ODM983052:ODM983072 ONI983052:ONI983072 OXE983052:OXE983072 PHA983052:PHA983072 PQW983052:PQW983072 QAS983052:QAS983072 QKO983052:QKO983072 QUK983052:QUK983072 REG983052:REG983072 ROC983052:ROC983072 RXY983052:RXY983072 SHU983052:SHU983072 SRQ983052:SRQ983072 TBM983052:TBM983072 TLI983052:TLI983072 TVE983052:TVE983072 UFA983052:UFA983072 UOW983052:UOW983072 UYS983052:UYS983072 VIO983052:VIO983072 VSK983052:VSK983072 WCG983052:WCG983072 WMC983052:WMC983072 Q16:Q23 WVY16:WVY32 WMC16:WMC32 WCG16:WCG32 VSK16:VSK32 VIO16:VIO32 UYS16:UYS32 UOW16:UOW32 UFA16:UFA32 TVE16:TVE32 TLI16:TLI32 TBM16:TBM32 SRQ16:SRQ32 SHU16:SHU32 RXY16:RXY32 ROC16:ROC32 REG16:REG32 QUK16:QUK32 QKO16:QKO32 QAS16:QAS32 PQW16:PQW32 PHA16:PHA32 OXE16:OXE32 ONI16:ONI32 ODM16:ODM32 NTQ16:NTQ32 NJU16:NJU32 MZY16:MZY32 MQC16:MQC32 MGG16:MGG32 LWK16:LWK32 LMO16:LMO32 LCS16:LCS32 KSW16:KSW32 KJA16:KJA32 JZE16:JZE32 JPI16:JPI32 JFM16:JFM32 IVQ16:IVQ32 ILU16:ILU32 IBY16:IBY32 HSC16:HSC32 HIG16:HIG32 GYK16:GYK32 GOO16:GOO32 GES16:GES32 FUW16:FUW32 FLA16:FLA32 FBE16:FBE32 ERI16:ERI32 EHM16:EHM32 DXQ16:DXQ32 DNU16:DNU32 DDY16:DDY32 CUC16:CUC32 CKG16:CKG32 CAK16:CAK32 BQO16:BQO32 BGS16:BGS32 AWW16:AWW32 ANA16:ANA32 ADE16:ADE32 TI16:TI32 JM16:JM32">
@@ -3020,4 +3381,1618 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A1" s="79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="78">
+        <v>2016</v>
+      </c>
+      <c r="C2" s="78">
+        <v>2015</v>
+      </c>
+      <c r="D2" s="78">
+        <v>2014</v>
+      </c>
+      <c r="E2" s="78">
+        <v>2013</v>
+      </c>
+      <c r="F2" s="74"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+    </row>
+    <row r="3" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A3" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="75">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="75">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="75">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="74"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+    </row>
+    <row r="4" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A4" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="75">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="75">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="75">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="74"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+    </row>
+    <row r="5" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A5" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="75">
+        <v>20</v>
+      </c>
+      <c r="C5" s="75">
+        <v>21</v>
+      </c>
+      <c r="D5" s="75">
+        <v>22</v>
+      </c>
+      <c r="E5" s="75">
+        <v>23</v>
+      </c>
+      <c r="F5" s="74"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A6" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="75">
+        <v>100</v>
+      </c>
+      <c r="C6" s="75">
+        <v>101</v>
+      </c>
+      <c r="D6" s="75">
+        <v>102</v>
+      </c>
+      <c r="E6" s="75">
+        <v>103</v>
+      </c>
+      <c r="F6" s="74"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+    </row>
+    <row r="7" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A7" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="75">
+        <v>10</v>
+      </c>
+      <c r="C7" s="75">
+        <v>9</v>
+      </c>
+      <c r="D7" s="75">
+        <v>8</v>
+      </c>
+      <c r="E7" s="75">
+        <v>7</v>
+      </c>
+      <c r="F7" s="74"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+    </row>
+    <row r="8" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A8" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="75">
+        <v>10</v>
+      </c>
+      <c r="C8" s="75">
+        <v>10</v>
+      </c>
+      <c r="D8" s="75">
+        <v>10</v>
+      </c>
+      <c r="E8" s="75">
+        <v>10</v>
+      </c>
+      <c r="F8" s="74"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A10" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="75">
+        <v>100</v>
+      </c>
+      <c r="C10" s="75">
+        <v>95.238095240000007</v>
+      </c>
+      <c r="D10" s="75">
+        <v>90.909090910000003</v>
+      </c>
+      <c r="E10" s="75">
+        <v>86.956521739999999</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="75">
+        <v>93.27592697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A11" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="75">
+        <v>200</v>
+      </c>
+      <c r="C11" s="75">
+        <v>222.2222222</v>
+      </c>
+      <c r="D11" s="75">
+        <v>250</v>
+      </c>
+      <c r="E11" s="75">
+        <v>285.7142857</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="75">
+        <v>239.484127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A12" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="75">
+        <v>10</v>
+      </c>
+      <c r="C12" s="75">
+        <v>10.1</v>
+      </c>
+      <c r="D12" s="75">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E12" s="75">
+        <v>10.3</v>
+      </c>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="75">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A13" s="74"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A14" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="78">
+        <v>2016</v>
+      </c>
+      <c r="C14" s="78">
+        <v>2015</v>
+      </c>
+      <c r="D14" s="78">
+        <v>2014</v>
+      </c>
+      <c r="E14" s="78">
+        <v>2013</v>
+      </c>
+      <c r="F14" s="74"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+    </row>
+    <row r="15" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A15" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="75">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="75">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="75">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="74"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+    </row>
+    <row r="16" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A16" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="75">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="75">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="75">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="74"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+    </row>
+    <row r="17" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A17" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="75">
+        <v>10</v>
+      </c>
+      <c r="C17" s="75">
+        <v>11</v>
+      </c>
+      <c r="D17" s="75">
+        <v>12</v>
+      </c>
+      <c r="E17" s="75">
+        <v>13</v>
+      </c>
+      <c r="F17" s="74"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A18" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="75">
+        <v>3</v>
+      </c>
+      <c r="C18" s="75">
+        <v>3</v>
+      </c>
+      <c r="D18" s="75">
+        <v>3</v>
+      </c>
+      <c r="E18" s="75">
+        <v>3</v>
+      </c>
+      <c r="F18" s="74"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+    </row>
+    <row r="19" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A19" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="75">
+        <v>4</v>
+      </c>
+      <c r="C19" s="75">
+        <v>3</v>
+      </c>
+      <c r="D19" s="75">
+        <v>2</v>
+      </c>
+      <c r="E19" s="75">
+        <v>1</v>
+      </c>
+      <c r="F19" s="74"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+    </row>
+    <row r="20" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A20" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="75">
+        <v>200</v>
+      </c>
+      <c r="C20" s="75">
+        <v>200</v>
+      </c>
+      <c r="D20" s="75">
+        <v>200</v>
+      </c>
+      <c r="E20" s="75">
+        <v>200</v>
+      </c>
+      <c r="F20" s="74"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A21" s="74"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A22" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="75">
+        <v>200</v>
+      </c>
+      <c r="C22" s="75">
+        <v>181.81818179999999</v>
+      </c>
+      <c r="D22" s="75">
+        <v>166.66666670000001</v>
+      </c>
+      <c r="E22" s="75">
+        <v>153.8461538</v>
+      </c>
+      <c r="F22" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="73"/>
+      <c r="H22" s="75">
+        <v>175.5827506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A23" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="75">
+        <v>500</v>
+      </c>
+      <c r="C23" s="75">
+        <v>666.66666669999995</v>
+      </c>
+      <c r="D23" s="75">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="75">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="73"/>
+      <c r="H23" s="75">
+        <v>1041.666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A24" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="75">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C24" s="75">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D24" s="75">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E24" s="75">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="73"/>
+      <c r="H24" s="75">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A25" s="74"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A26" s="74"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A27" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="78">
+        <v>2016</v>
+      </c>
+      <c r="C27" s="78">
+        <v>2015</v>
+      </c>
+      <c r="D27" s="78">
+        <v>2014</v>
+      </c>
+      <c r="E27" s="78">
+        <v>2013</v>
+      </c>
+      <c r="F27" s="74"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+    </row>
+    <row r="28" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A28" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="75">
+        <v>1000</v>
+      </c>
+      <c r="C28" s="75">
+        <v>1000</v>
+      </c>
+      <c r="D28" s="75">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F28" s="74"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A29" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="75">
+        <v>1000</v>
+      </c>
+      <c r="C29" s="75">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="75">
+        <v>1000</v>
+      </c>
+      <c r="E29" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="74"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A30" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="75">
+        <v>30</v>
+      </c>
+      <c r="C30" s="75">
+        <v>31</v>
+      </c>
+      <c r="D30" s="75">
+        <v>32</v>
+      </c>
+      <c r="E30" s="75">
+        <v>32</v>
+      </c>
+      <c r="F30" s="74"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="75">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A31" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="75">
+        <v>3</v>
+      </c>
+      <c r="C31" s="75">
+        <v>3</v>
+      </c>
+      <c r="D31" s="75">
+        <v>3</v>
+      </c>
+      <c r="E31" s="75">
+        <v>3</v>
+      </c>
+      <c r="F31" s="74"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+    </row>
+    <row r="32" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A32" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="75">
+        <v>7</v>
+      </c>
+      <c r="C32" s="75">
+        <v>6</v>
+      </c>
+      <c r="D32" s="75">
+        <v>5</v>
+      </c>
+      <c r="E32" s="75">
+        <v>4</v>
+      </c>
+      <c r="F32" s="74"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+    </row>
+    <row r="33" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A33" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="75">
+        <v>1</v>
+      </c>
+      <c r="C33" s="75">
+        <v>1</v>
+      </c>
+      <c r="D33" s="75">
+        <v>1</v>
+      </c>
+      <c r="E33" s="75">
+        <v>1</v>
+      </c>
+      <c r="F33" s="74"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A34" s="74"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A35" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="75">
+        <v>66.666666669999998</v>
+      </c>
+      <c r="C35" s="75">
+        <v>64.516129030000002</v>
+      </c>
+      <c r="D35" s="75">
+        <v>62.5</v>
+      </c>
+      <c r="E35" s="75">
+        <v>62.5</v>
+      </c>
+      <c r="F35" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="73"/>
+      <c r="H35" s="75">
+        <v>64.045698920000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A36" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="75">
+        <v>285.7142857</v>
+      </c>
+      <c r="C36" s="75">
+        <v>333.33333329999999</v>
+      </c>
+      <c r="D36" s="75">
+        <v>400</v>
+      </c>
+      <c r="E36" s="75">
+        <v>500</v>
+      </c>
+      <c r="F36" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="73"/>
+      <c r="H36" s="75">
+        <v>379.76190480000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A37" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="75">
+        <v>3</v>
+      </c>
+      <c r="C37" s="75">
+        <v>3</v>
+      </c>
+      <c r="D37" s="75">
+        <v>3</v>
+      </c>
+      <c r="E37" s="75">
+        <v>3</v>
+      </c>
+      <c r="F37" s="74"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A38" s="74"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A39" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="78">
+        <v>2016</v>
+      </c>
+      <c r="C39" s="78">
+        <v>2015</v>
+      </c>
+      <c r="D39" s="78">
+        <v>2014</v>
+      </c>
+      <c r="E39" s="78">
+        <v>2013</v>
+      </c>
+      <c r="F39" s="74"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+    </row>
+    <row r="40" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A40" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="75">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="75">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="75">
+        <v>1000</v>
+      </c>
+      <c r="E40" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F40" s="74"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A41" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="75">
+        <v>1000</v>
+      </c>
+      <c r="C41" s="75">
+        <v>1000</v>
+      </c>
+      <c r="D41" s="75">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="74"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A42" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="75">
+        <v>200</v>
+      </c>
+      <c r="C42" s="75">
+        <v>546</v>
+      </c>
+      <c r="D42" s="75">
+        <v>588</v>
+      </c>
+      <c r="E42" s="75">
+        <v>7897</v>
+      </c>
+      <c r="F42" s="74"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="75">
+        <v>2307.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A43" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="75">
+        <v>3</v>
+      </c>
+      <c r="C43" s="75">
+        <v>3</v>
+      </c>
+      <c r="D43" s="75">
+        <v>3</v>
+      </c>
+      <c r="E43" s="75">
+        <v>3</v>
+      </c>
+      <c r="F43" s="74"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+    </row>
+    <row r="44" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A44" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="75">
+        <v>7</v>
+      </c>
+      <c r="C44" s="75">
+        <v>6</v>
+      </c>
+      <c r="D44" s="75">
+        <v>5</v>
+      </c>
+      <c r="E44" s="75">
+        <v>4</v>
+      </c>
+      <c r="F44" s="74"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+    </row>
+    <row r="45" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A45" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="75">
+        <v>1</v>
+      </c>
+      <c r="C45" s="75">
+        <v>1</v>
+      </c>
+      <c r="D45" s="75">
+        <v>1</v>
+      </c>
+      <c r="E45" s="75">
+        <v>1</v>
+      </c>
+      <c r="F45" s="74"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A46" s="74"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+    </row>
+    <row r="47" spans="1:8" ht="45.75" thickBot="1">
+      <c r="A47" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="75">
+        <v>10</v>
+      </c>
+      <c r="C47" s="75">
+        <v>3.663003663</v>
+      </c>
+      <c r="D47" s="75">
+        <v>3.4013605440000001</v>
+      </c>
+      <c r="E47" s="75">
+        <v>0.25326073189999998</v>
+      </c>
+      <c r="F47" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" s="73"/>
+      <c r="H47" s="75">
+        <v>4.3294062350000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A48" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="75">
+        <v>285.7142857</v>
+      </c>
+      <c r="C48" s="75">
+        <v>333.33333329999999</v>
+      </c>
+      <c r="D48" s="75">
+        <v>400</v>
+      </c>
+      <c r="E48" s="75">
+        <v>500</v>
+      </c>
+      <c r="F48" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" s="73"/>
+      <c r="H48" s="75">
+        <v>379.76190480000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A49" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="75">
+        <v>3</v>
+      </c>
+      <c r="C49" s="75">
+        <v>3</v>
+      </c>
+      <c r="D49" s="75">
+        <v>3</v>
+      </c>
+      <c r="E49" s="75">
+        <v>3</v>
+      </c>
+      <c r="F49" s="74"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A50" s="74"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A51" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="78">
+        <v>2016</v>
+      </c>
+      <c r="C51" s="78">
+        <v>2015</v>
+      </c>
+      <c r="D51" s="78">
+        <v>2014</v>
+      </c>
+      <c r="E51" s="78">
+        <v>2013</v>
+      </c>
+      <c r="F51" s="74"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+    </row>
+    <row r="52" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A52" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="75">
+        <v>1000</v>
+      </c>
+      <c r="C52" s="75">
+        <v>1000</v>
+      </c>
+      <c r="D52" s="75">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="74"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A53" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="75">
+        <v>1000</v>
+      </c>
+      <c r="C53" s="75">
+        <v>1000</v>
+      </c>
+      <c r="D53" s="75">
+        <v>1000</v>
+      </c>
+      <c r="E53" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F53" s="74"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A54" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="75">
+        <v>40</v>
+      </c>
+      <c r="C54" s="75">
+        <v>41</v>
+      </c>
+      <c r="D54" s="75">
+        <v>42</v>
+      </c>
+      <c r="E54" s="75">
+        <v>43</v>
+      </c>
+      <c r="F54" s="74"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="75">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A55" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="75">
+        <v>3</v>
+      </c>
+      <c r="C55" s="75">
+        <v>3</v>
+      </c>
+      <c r="D55" s="75">
+        <v>3</v>
+      </c>
+      <c r="E55" s="75">
+        <v>3</v>
+      </c>
+      <c r="F55" s="74"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+    </row>
+    <row r="56" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A56" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="75">
+        <v>6</v>
+      </c>
+      <c r="C56" s="75">
+        <v>5</v>
+      </c>
+      <c r="D56" s="75">
+        <v>3</v>
+      </c>
+      <c r="E56" s="75">
+        <v>89</v>
+      </c>
+      <c r="F56" s="74"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+    </row>
+    <row r="57" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A57" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="75">
+        <v>1</v>
+      </c>
+      <c r="C57" s="75">
+        <v>1</v>
+      </c>
+      <c r="D57" s="76">
+        <v>1</v>
+      </c>
+      <c r="E57" s="75">
+        <v>1</v>
+      </c>
+      <c r="F57" s="74"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A58" s="74"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+    </row>
+    <row r="59" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A59" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="75">
+        <v>50</v>
+      </c>
+      <c r="C59" s="75">
+        <v>48.780487800000003</v>
+      </c>
+      <c r="D59" s="75">
+        <v>47.619047620000003</v>
+      </c>
+      <c r="E59" s="75">
+        <v>46.511627910000001</v>
+      </c>
+      <c r="F59" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="G59" s="73"/>
+      <c r="H59" s="75">
+        <v>48.227790830000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A60" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="75">
+        <v>333.33333329999999</v>
+      </c>
+      <c r="C60" s="75">
+        <v>400</v>
+      </c>
+      <c r="D60" s="75">
+        <v>666.66666669999995</v>
+      </c>
+      <c r="E60" s="75">
+        <v>22.47191011</v>
+      </c>
+      <c r="F60" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="G60" s="73"/>
+      <c r="H60" s="75">
+        <v>355.61797749999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A61" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="75">
+        <v>3</v>
+      </c>
+      <c r="C61" s="75">
+        <v>3</v>
+      </c>
+      <c r="D61" s="75">
+        <v>3</v>
+      </c>
+      <c r="E61" s="75">
+        <v>3</v>
+      </c>
+      <c r="F61" s="74"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="32.25" thickBot="1">
+      <c r="A63" s="80" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A64" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="88">
+        <v>2016</v>
+      </c>
+      <c r="C64" s="88">
+        <v>2015</v>
+      </c>
+      <c r="D64" s="88">
+        <v>2014</v>
+      </c>
+      <c r="E64" s="88">
+        <v>2013</v>
+      </c>
+      <c r="F64" s="74"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A65" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="84">
+        <v>2000</v>
+      </c>
+      <c r="C65" s="84">
+        <v>2000</v>
+      </c>
+      <c r="D65" s="84">
+        <v>2000</v>
+      </c>
+      <c r="E65" s="84">
+        <v>2000</v>
+      </c>
+      <c r="F65" s="74"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A66" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="84">
+        <v>20</v>
+      </c>
+      <c r="C66" s="84">
+        <v>21</v>
+      </c>
+      <c r="D66" s="84">
+        <v>22</v>
+      </c>
+      <c r="E66" s="84">
+        <v>23</v>
+      </c>
+      <c r="F66" s="74"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A67" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="84">
+        <v>10</v>
+      </c>
+      <c r="C67" s="84">
+        <v>9</v>
+      </c>
+      <c r="D67" s="84">
+        <v>8</v>
+      </c>
+      <c r="E67" s="84">
+        <v>7</v>
+      </c>
+      <c r="F67" s="74"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A68" s="81"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A69" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="88">
+        <v>2016</v>
+      </c>
+      <c r="C69" s="88">
+        <v>2015</v>
+      </c>
+      <c r="D69" s="88">
+        <v>2014</v>
+      </c>
+      <c r="E69" s="88">
+        <v>2013</v>
+      </c>
+      <c r="F69" s="74"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A70" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="84">
+        <v>2000</v>
+      </c>
+      <c r="C70" s="84">
+        <v>2000</v>
+      </c>
+      <c r="D70" s="84">
+        <v>2000</v>
+      </c>
+      <c r="E70" s="84">
+        <v>2000</v>
+      </c>
+      <c r="F70" s="74"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A71" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="84">
+        <v>10</v>
+      </c>
+      <c r="C71" s="84">
+        <v>11</v>
+      </c>
+      <c r="D71" s="84">
+        <v>12</v>
+      </c>
+      <c r="E71" s="84">
+        <v>13</v>
+      </c>
+      <c r="F71" s="74"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A72" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="84">
+        <v>40000</v>
+      </c>
+      <c r="C72" s="84">
+        <v>40000</v>
+      </c>
+      <c r="D72" s="84">
+        <v>400000</v>
+      </c>
+      <c r="E72" s="85">
+        <v>400000</v>
+      </c>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="75"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A73" s="86"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="75"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A74" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="90">
+        <v>2016</v>
+      </c>
+      <c r="C74" s="90">
+        <v>2015</v>
+      </c>
+      <c r="D74" s="90">
+        <v>2014</v>
+      </c>
+      <c r="E74" s="90">
+        <v>2013</v>
+      </c>
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="75"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A75" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="84">
+        <v>2000</v>
+      </c>
+      <c r="C75" s="84">
+        <v>2000</v>
+      </c>
+      <c r="D75" s="84">
+        <v>2000</v>
+      </c>
+      <c r="E75" s="84">
+        <v>2000</v>
+      </c>
+      <c r="F75" s="74"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="73"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A76" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="84">
+        <v>30</v>
+      </c>
+      <c r="C76" s="84">
+        <v>31</v>
+      </c>
+      <c r="D76" s="84">
+        <v>32</v>
+      </c>
+      <c r="E76" s="84">
+        <v>32</v>
+      </c>
+      <c r="F76" s="74"/>
+      <c r="G76" s="73"/>
+      <c r="H76" s="73"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A77" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="84">
+        <v>7</v>
+      </c>
+      <c r="C77" s="84">
+        <v>6</v>
+      </c>
+      <c r="D77" s="84">
+        <v>5</v>
+      </c>
+      <c r="E77" s="84">
+        <v>4</v>
+      </c>
+      <c r="F77" s="74"/>
+      <c r="G77" s="73"/>
+      <c r="H77" s="73"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A78" s="81"/>
+      <c r="B78" s="82"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="82"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="73"/>
+      <c r="H78" s="73"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" thickBot="1">
+      <c r="F79" s="74"/>
+      <c r="G79" s="73"/>
+      <c r="H79" s="73"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" thickBot="1">
+      <c r="F80" s="74"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" thickBot="1">
+      <c r="F81" s="74"/>
+      <c r="G81" s="73"/>
+      <c r="H81" s="73"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" thickBot="1">
+      <c r="F82" s="74"/>
+      <c r="G82" s="73"/>
+      <c r="H82" s="73"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" thickBot="1">
+      <c r="F83" s="74"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="73"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" thickBot="1">
+      <c r="F84" s="74"/>
+      <c r="G84" s="73"/>
+      <c r="H84" s="75"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" thickBot="1">
+      <c r="F85" s="74"/>
+      <c r="G85" s="73"/>
+      <c r="H85" s="75"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" thickBot="1">
+      <c r="F86" s="74"/>
+      <c r="G86" s="73"/>
+      <c r="H86" s="75"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A87" s="74"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="73"/>
+      <c r="H87" s="73"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A88" s="74"/>
+      <c r="B88" s="73"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="73"/>
+      <c r="E88" s="73"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="73"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" thickBot="1">
+      <c r="F89" s="74"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="73"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" thickBot="1">
+      <c r="F90" s="74"/>
+      <c r="G90" s="73"/>
+      <c r="H90" s="75"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" thickBot="1">
+      <c r="F91" s="74"/>
+      <c r="G91" s="73"/>
+      <c r="H91" s="75"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" thickBot="1">
+      <c r="F92" s="74"/>
+      <c r="G92" s="73"/>
+      <c r="H92" s="75"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" thickBot="1">
+      <c r="F93" s="74"/>
+      <c r="G93" s="73"/>
+      <c r="H93" s="73"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" thickBot="1">
+      <c r="F94" s="74"/>
+      <c r="G94" s="73"/>
+      <c r="H94" s="73"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A95" s="74"/>
+      <c r="B95" s="75"/>
+      <c r="C95" s="75"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="75"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="73"/>
+      <c r="H95" s="73"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A96" s="74"/>
+      <c r="B96" s="73"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="73"/>
+      <c r="E96" s="73"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="73"/>
+      <c r="H96" s="73"/>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A97" s="74"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="75"/>
+      <c r="F97" s="74"/>
+      <c r="G97" s="73"/>
+      <c r="H97" s="75"/>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A98" s="74"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="75"/>
+      <c r="E98" s="75"/>
+      <c r="F98" s="74"/>
+      <c r="G98" s="73"/>
+      <c r="H98" s="75"/>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A99" s="74"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="73"/>
+      <c r="H99" s="75"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>